--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1842525.258634346</v>
+        <v>1835351.969924063</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702198</v>
+        <v>2346514.735702196</v>
       </c>
     </row>
     <row r="8">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>157.3961002323935</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>276.1565137023555</v>
+        <v>111.3193379718598</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>87.73808406194057</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>76.62446154719007</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.363104630273075</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>79.32511041905947</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.039630846423</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>244.9154724916892</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.039630846423</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>20.69785048267536</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385215</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>63.54925306610343</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129669</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.6115621885115</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>115.3392102682851</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>136.1520687203441</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>92.93819859881174</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>314.6757550035595</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1186,19 +1186,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,13 +1308,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>52.10844059186254</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>122.65197883716</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>8.972498717271243</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>100.189581134911</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>76.27978370493953</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>220.3739834444893</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>68.5099567819689</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>255.4853389885909</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>78.03981937612281</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>175.9880246214064</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>206.2582688907056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>32.8965767413795</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>148.3600459394281</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>85.13671547863082</v>
+        <v>256.111763886877</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>47.20011114811116</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>222.217994954871</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>256.3432811758636</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>196.3935804494339</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="C2" t="n">
-        <v>196.3935804494339</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="D2" t="n">
-        <v>196.3935804494339</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="E2" t="n">
-        <v>196.3935804494339</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873336</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228794</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>754.2855273228794</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="U2" t="n">
-        <v>754.2855273228794</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="V2" t="n">
-        <v>475.3395538861566</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="W2" t="n">
-        <v>475.3395538861566</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="X2" t="n">
-        <v>475.3395538861566</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="Y2" t="n">
-        <v>196.3935804494339</v>
+        <v>530.4184100750089</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.0309942154535</v>
+        <v>651.2519730171373</v>
       </c>
       <c r="C3" t="n">
-        <v>311.0309942154535</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="D3" t="n">
-        <v>311.0309942154535</v>
+        <v>327.864534074759</v>
       </c>
       <c r="E3" t="n">
-        <v>311.0309942154535</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F3" t="n">
-        <v>311.0309942154535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L3" t="n">
-        <v>360.9520376814696</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M3" t="n">
-        <v>634.3469862468015</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N3" t="n">
-        <v>907.7419348121334</v>
+        <v>815.0378848195531</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121334</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>773.028649708609</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W3" t="n">
-        <v>518.7912929804074</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X3" t="n">
-        <v>518.7912929804074</v>
+        <v>1027.227608802159</v>
       </c>
       <c r="Y3" t="n">
-        <v>311.0309942154535</v>
+        <v>819.4673100372054</v>
       </c>
     </row>
     <row r="4">
@@ -4485,10 +4485,10 @@
         <v>117.3019767171697</v>
       </c>
       <c r="I4" t="n">
-        <v>111.8846993128535</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="K4" t="n">
         <v>22.09252109618844</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.9650405726168</v>
+        <v>430.8612225109261</v>
       </c>
       <c r="C5" t="n">
-        <v>990.9650405726168</v>
+        <v>430.8612225109261</v>
       </c>
       <c r="D5" t="n">
-        <v>990.9650405726168</v>
+        <v>72.59552390417559</v>
       </c>
       <c r="E5" t="n">
-        <v>990.9650405726168</v>
+        <v>72.59552390417559</v>
       </c>
       <c r="F5" t="n">
-        <v>743.5756744193953</v>
+        <v>65.65002315497212</v>
       </c>
       <c r="G5" t="n">
-        <v>367.7780675038165</v>
+        <v>50.67009014718387</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771384</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771384</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380434</v>
+        <v>57.64391735380428</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456886</v>
+        <v>220.1747338456884</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039988</v>
+        <v>474.0852112039985</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494178</v>
+        <v>773.2160860494173</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635724</v>
+        <v>1062.555213635723</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293131</v>
+        <v>1290.58230929313</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935884</v>
+        <v>1447.523776935882</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385692</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488196</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.762647488196</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.762647488196</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.762647488196</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.762647488196</v>
+        <v>1157.09563604212</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.762647488196</v>
+        <v>804.326980772006</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.762647488196</v>
+        <v>430.8612225109261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1366.762647488196</v>
+        <v>430.8612225109261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>189.0006254731694</v>
+        <v>414.9419224351917</v>
       </c>
       <c r="C6" t="n">
-        <v>189.0006254731694</v>
+        <v>240.4888931540646</v>
       </c>
       <c r="D6" t="n">
-        <v>189.0006254731694</v>
+        <v>176.2977284408288</v>
       </c>
       <c r="E6" t="n">
-        <v>29.76317046771384</v>
+        <v>176.2977284408288</v>
       </c>
       <c r="F6" t="n">
-        <v>29.76317046771384</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="G6" t="n">
-        <v>29.76317046771384</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="H6" t="n">
-        <v>29.76317046771384</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771384</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782873</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="K6" t="n">
-        <v>135.4054213406636</v>
+        <v>195.5446164760268</v>
       </c>
       <c r="L6" t="n">
-        <v>419.7234304868002</v>
+        <v>195.5446164760268</v>
       </c>
       <c r="M6" t="n">
-        <v>788.042665024759</v>
+        <v>563.8638510139853</v>
       </c>
       <c r="N6" t="n">
-        <v>1156.361899562718</v>
+        <v>848.0470181903971</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562718</v>
+        <v>1156.361899562717</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706688</v>
+        <v>1386.808705706687</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385692</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707614</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="S6" t="n">
-        <v>1295.158964052552</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="T6" t="n">
-        <v>1094.0018894036</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="U6" t="n">
-        <v>1094.0018894036</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="V6" t="n">
-        <v>858.8497811718578</v>
+        <v>1253.006415153948</v>
       </c>
       <c r="W6" t="n">
-        <v>604.6124244436561</v>
+        <v>998.7690584257464</v>
       </c>
       <c r="X6" t="n">
-        <v>396.7609242381233</v>
+        <v>790.9175582202136</v>
       </c>
       <c r="Y6" t="n">
-        <v>189.0006254731694</v>
+        <v>583.1572594552597</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177.676264050107</v>
+        <v>198.6993533956207</v>
       </c>
       <c r="C7" t="n">
-        <v>177.676264050107</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="D7" t="n">
-        <v>177.676264050107</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771384</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771384</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771384</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771384</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771384</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771384</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="K7" t="n">
-        <v>32.0999017588818</v>
+        <v>32.09990175888172</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611311</v>
+        <v>90.61654790611296</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236695</v>
+        <v>162.7032697236692</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400029</v>
+        <v>238.5105468400026</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057956</v>
+        <v>292.5145415057953</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918687</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918687</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918687</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918687</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918687</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918687</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="V7" t="n">
-        <v>177.676264050107</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="W7" t="n">
-        <v>177.676264050107</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="X7" t="n">
-        <v>177.676264050107</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="Y7" t="n">
-        <v>177.676264050107</v>
+        <v>315.2036061918683</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2212.181128500977</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C8" t="n">
-        <v>1843.218611560565</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2212.181128500977</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>2212.181128500977</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4874,40 +4874,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240411</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261307</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>264.3261428644631</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>106.5777702969933</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5041,19 +5041,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5077,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5363,22 +5363,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9054447954965</v>
+        <v>573.2461374003673</v>
       </c>
       <c r="C16" t="n">
-        <v>130.9054447954965</v>
+        <v>404.3099544724604</v>
       </c>
       <c r="D16" t="n">
-        <v>130.9054447954965</v>
+        <v>254.1933150601247</v>
       </c>
       <c r="E16" t="n">
-        <v>130.9054447954965</v>
+        <v>106.2802214777315</v>
       </c>
       <c r="F16" t="n">
-        <v>130.9054447954965</v>
+        <v>106.2802214777315</v>
       </c>
       <c r="G16" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X16" t="n">
-        <v>130.9054447954965</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.9054447954965</v>
+        <v>754.894602230607</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5600,22 +5600,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>564.4843764226425</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954965</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>564.4843764226425</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,19 +5840,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.7466045204288</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C22" t="n">
-        <v>415.8104215925219</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1421.865983987256</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1421.865983987256</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>1167.181495781369</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.787631771461</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X22" t="n">
-        <v>987.1876484941987</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y22" t="n">
-        <v>766.3950693506686</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5986,52 +5986,52 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1429.714294010459</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1205.928878799965</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1205.928878799965</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1205.928878799965</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>916.5117087630043</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>916.5117087630043</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.5117087630043</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6250,13 +6250,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1017.064856369034</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,37 +6457,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3720.806624707064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>3720.806624707064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4782.02647263437</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>4782.02647263437</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4492.897833847928</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>4238.213345642042</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>3948.796175605081</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3720.806624707064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>3720.806624707064</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6691,25 +6691,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6721,10 +6721,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3443.999848753677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3751.319982033639</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.8045051785809</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C34" t="n">
-        <v>358.8683222506741</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>964.1357418247858</v>
+        <v>1032.021950335697</v>
       </c>
       <c r="W34" t="n">
-        <v>964.1357418247858</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="X34" t="n">
-        <v>736.1461909267684</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.8045051785809</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="35">
@@ -6931,13 +6931,13 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7019,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4168.996359003562</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C37" t="n">
-        <v>4168.996359003562</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D37" t="n">
-        <v>4018.879719591227</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>3870.966626008833</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>3870.966626008833</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>4571.437402977332</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>4571.437402977332</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y37" t="n">
-        <v>4350.644823833802</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="38">
@@ -7150,55 +7150,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1943.227873734288</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.8045051785811</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C40" t="n">
-        <v>358.8683222506742</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7365,19 +7365,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1412.919588256255</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V40" t="n">
-        <v>1158.235100050368</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W40" t="n">
-        <v>1158.235100050368</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X40" t="n">
-        <v>930.2455491523509</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y40" t="n">
-        <v>709.4529700088208</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018224</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916677</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916677</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916677</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916677</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>144.8939714078729</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>4347.940519017357</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>4093.25603081147</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>3868.793409644933</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>3640.803858746916</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y43" t="n">
-        <v>3640.803858746916</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028587</v>
@@ -7839,19 +7839,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1016.198248099061</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>761.5137598931742</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>472.0965898562135</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>319.3227371573183</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938571</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,22 +8294,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948383</v>
       </c>
       <c r="K6" t="n">
-        <v>180.5749367141158</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>83.65043707503852</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835739</v>
+        <v>450.1033532835737</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470464</v>
+        <v>352.6293543192213</v>
       </c>
       <c r="O6" t="n">
-        <v>82.43314617337634</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>104.6241510367947</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>73.53204524670059</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776757</v>
+        <v>277.671796620807</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>288.4091825776756</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10667,28 +10667,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>182.034074286795</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>157.5210697461063</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>118.3950722171838</v>
       </c>
     </row>
     <row r="20">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24180,19 +24180,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>145.2677773534497</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>5.335671944547869</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>129.4108532016344</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>30.75201340998646</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>119.8809906074804</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>76.14961870242163</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.32638446138918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>115.7188962768329</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>18.13352252394952</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>201.1006369199465</v>
+        <v>30.12558851170036</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>119.2934573152664</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>64.30500338172004</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429841025</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>29.89407122271371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>890615.0441940957</v>
+        <v>890615.0441940955</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>890615.0441940957</v>
+        <v>890615.0441940955</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>890615.0441940955</v>
+        <v>890615.0441940957</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>890615.0441940958</v>
+        <v>890615.0441940955</v>
       </c>
     </row>
     <row r="13">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583907</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="F2" t="n">
         <v>527889.230645907</v>
@@ -26331,31 +26331,31 @@
         <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459066</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="N2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459075</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459073</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703847</v>
+        <v>106137.1517703844</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.94242521</v>
+        <v>316711.9424252103</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113916</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313431</v>
+        <v>24677.24609313433</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817115</v>
+        <v>76496.15793817128</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>325319.6241977946</v>
       </c>
       <c r="C4" t="n">
-        <v>295391.3642791483</v>
+        <v>295391.3642791484</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
         <v>50690.35944859718</v>
@@ -26435,25 +26435,25 @@
         <v>50690.35944859718</v>
       </c>
       <c r="H4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.3594485972</v>
       </c>
       <c r="I4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.3594485972</v>
       </c>
       <c r="J4" t="n">
+        <v>50690.35944859724</v>
+      </c>
+      <c r="K4" t="n">
         <v>50690.3594485972</v>
       </c>
-      <c r="K4" t="n">
-        <v>50690.35944859718</v>
-      </c>
       <c r="L4" t="n">
-        <v>50690.35944859717</v>
+        <v>50690.3594485972</v>
       </c>
       <c r="M4" t="n">
         <v>50690.35944859718</v>
       </c>
       <c r="N4" t="n">
-        <v>50690.3594485972</v>
+        <v>50690.35944859718</v>
       </c>
       <c r="O4" t="n">
         <v>50690.3594485972</v>
@@ -26472,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485722</v>
+        <v>58810.42201485719</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26487,25 +26487,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51408.84949700342</v>
+        <v>51408.84949700302</v>
       </c>
       <c r="C6" t="n">
-        <v>93864.2565940011</v>
+        <v>93864.25659400165</v>
       </c>
       <c r="D6" t="n">
-        <v>-46432.33175795971</v>
+        <v>-46432.33175796</v>
       </c>
       <c r="E6" t="n">
-        <v>-139948.4912283028</v>
+        <v>-140923.0824880248</v>
       </c>
       <c r="F6" t="n">
-        <v>385211.5452485932</v>
+        <v>384236.9539888715</v>
       </c>
       <c r="G6" t="n">
-        <v>385211.5452485933</v>
+        <v>384236.9539888717</v>
       </c>
       <c r="H6" t="n">
-        <v>385211.545248593</v>
+        <v>384236.9539888717</v>
       </c>
       <c r="I6" t="n">
-        <v>385211.5452485929</v>
+        <v>384236.9539888717</v>
       </c>
       <c r="J6" t="n">
-        <v>312956.8503774542</v>
+        <v>311982.2591177323</v>
       </c>
       <c r="K6" t="n">
-        <v>360534.2991554589</v>
+        <v>359559.7078957371</v>
       </c>
       <c r="L6" t="n">
-        <v>308715.3873104219</v>
+        <v>307740.7960507005</v>
       </c>
       <c r="M6" t="n">
-        <v>250410.5300147559</v>
+        <v>249435.9387550346</v>
       </c>
       <c r="N6" t="n">
-        <v>385211.5452485932</v>
+        <v>384236.9539888715</v>
       </c>
       <c r="O6" t="n">
-        <v>385211.5452485931</v>
+        <v>384236.953988872</v>
       </c>
       <c r="P6" t="n">
-        <v>385211.5452485934</v>
+        <v>384236.9539888719</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593898</v>
+        <v>117.5602045593895</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26792,10 +26792,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.039630846423</v>
+        <v>372.0396308464227</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026444</v>
+        <v>82.53894384026421</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576969</v>
+        <v>260.1834596576971</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370136</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406751</v>
+        <v>95.88311714406716</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081325</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023557</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406728</v>
+        <v>95.88311714406738</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081324</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406751</v>
+        <v>95.88311714406716</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081325</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>249.4799455093179</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777942</v>
+        <v>216.4329204982751</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.53010435179873</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27517,13 +27517,13 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>129.1485236562874</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27557,13 +27557,13 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>148.1881845517579</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>9.569146015438918</v>
       </c>
       <c r="K4" t="n">
-        <v>14.932250645712</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.69421081705758</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>161.9605732500222</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128737</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>313.9368975830663</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280908</v>
+        <v>192.2558301280909</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385215</v>
       </c>
       <c r="S5" t="n">
         <v>198.2506096409304</v>
@@ -27675,13 +27675,13 @@
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>83.89581249853532</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
@@ -27715,7 +27715,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281875</v>
+        <v>80.69052336281878</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129673</v>
       </c>
       <c r="S6" t="n">
-        <v>60.37474602561868</v>
+        <v>166.9863082141301</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>64.49276991365223</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358467</v>
+        <v>78.3712176435847</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322653</v>
+        <v>68.41045236322657</v>
       </c>
       <c r="R7" t="n">
         <v>167.761378725518</v>
@@ -27833,7 +27833,7 @@
         <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
-        <v>115.9855746034839</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>261.7448430218712</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>99.10841501723553</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>82.85718120047568</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466301</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31056,31 +31056,31 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470703</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870382</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052019</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779992</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
         <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394054</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587927</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390064</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246821</v>
+        <v>0.4726038374246812</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025527</v>
+        <v>4.840054050025517</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231508</v>
+        <v>18.22005944231504</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662316</v>
+        <v>40.11165994662307</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480996</v>
+        <v>60.11698038480984</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439559</v>
+        <v>74.58043007439544</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819678</v>
+        <v>82.98509856819661</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127966</v>
+        <v>84.32788422127949</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288797</v>
+        <v>79.62842981288782</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646612</v>
+        <v>67.96102257646599</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869468</v>
+        <v>51.03589764869457</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262822</v>
+        <v>29.68720080262815</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531495</v>
+        <v>10.76945994531493</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326547</v>
+        <v>2.068823298326543</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397456</v>
+        <v>0.03780830699397449</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.252865345656046</v>
+        <v>0.2528653456560454</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941286</v>
+        <v>2.442146890941281</v>
       </c>
       <c r="I6" t="n">
-        <v>8.70610948859632</v>
+        <v>8.706109488596301</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182845</v>
+        <v>23.8902298718284</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078353</v>
+        <v>40.83220803078344</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483577</v>
+        <v>54.90394270483566</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486742</v>
+        <v>64.07031148486729</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270994</v>
+        <v>65.76606198270981</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106809</v>
+        <v>60.16309827106796</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496899</v>
+        <v>48.28619043496889</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128755</v>
+        <v>32.27803956128749</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134644</v>
+        <v>15.6998326013464</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707692</v>
+        <v>4.696862889707683</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359237</v>
+        <v>1.019224792359235</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368724</v>
+        <v>0.01663587800368721</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005389</v>
+        <v>0.2119938115005385</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886611</v>
+        <v>1.884817705886607</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761663</v>
+        <v>6.37523207676165</v>
       </c>
       <c r="J7" t="n">
-        <v>14.9879624730881</v>
+        <v>14.98796247308807</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342624</v>
+        <v>24.62982646342619</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072558</v>
+        <v>31.51769812072552</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094357</v>
+        <v>33.2309935609435</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898703</v>
+        <v>32.44083480898697</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736709</v>
+        <v>29.96436164736703</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275608</v>
+        <v>25.63968789275603</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846786</v>
+        <v>17.75159088846782</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651502</v>
+        <v>9.532012651651483</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513936</v>
+        <v>3.694473969513929</v>
       </c>
       <c r="T7" t="n">
-        <v>0.905791740047757</v>
+        <v>0.9057917400477551</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912032</v>
+        <v>0.01156329880912029</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522136</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>197.1242773010319</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
         <v>276.1565137023555</v>
@@ -34792,10 +34792,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34865,16 +34865,16 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201064</v>
+        <v>28.16237059201055</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109941</v>
+        <v>164.172541910994</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548588</v>
+        <v>256.4752296548587</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337565</v>
+        <v>302.1523988337564</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366729</v>
+        <v>292.2617450366727</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539466</v>
+        <v>230.3303996539464</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926792</v>
+        <v>158.5267349926791</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414987</v>
+        <v>41.04519843414977</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557059</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>83.5657057705403</v>
+        <v>167.4560060690031</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284208</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>372.039630846423</v>
+        <v>372.0396308464227</v>
       </c>
       <c r="N6" t="n">
-        <v>372.039630846423</v>
+        <v>287.0537042185978</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>311.429173103353</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605759</v>
+        <v>232.7745516605758</v>
       </c>
       <c r="Q6" t="n">
         <v>102.3735532111151</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543392</v>
+        <v>2.360334637543339</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104172</v>
+        <v>59.10772338104165</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278416</v>
+        <v>72.81487052278408</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821563</v>
+        <v>76.57300718821557</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140677</v>
+        <v>54.5494895614067</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764957</v>
+        <v>22.91824715764951</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.689756130333</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35743,13 +35743,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36138,13 +36138,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>415.0485280872609</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.689756130333</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36448,19 +36448,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>280.6254601782252</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337</v>
+        <v>526.9295015768313</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36697,7 +36697,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>570.7728848187837</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875336981</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>389.1274892183196</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
@@ -37879,10 +37879,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
